--- a/data/trans_camb/P32-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P32-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,48; 11,42</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 7,61</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 8,03</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 16,95</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 17,34</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 9,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 7,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 4,68</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>303,47%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>152,68%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>97,14%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>393,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>292,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,09%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 8,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 4,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 3,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 5,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 4,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,57; 6,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 3,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 2,97</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>587,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>236,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>645,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>315,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>216,67%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>85,01; 2807,52</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-31,52; 1484,96</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-56,48; 1055,31</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>114,81; 3396,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 1869,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,07; 1566,93</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 5,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 6,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,67; 3,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 3,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,51; 8,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 3,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 4,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 5,96</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>205,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>548,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,53%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-6,48; 234,96</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 272,77</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 318,8</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,33; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,33; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; 237,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,19; 261,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,58; 400,78</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 7,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 3,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 6,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 2,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 3,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 6,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 5,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 2,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 4,49</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,53%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>7,22; 266,56</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-47,48; 129,7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-27,16; 205,31</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,95; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,72; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 220,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,25; 119,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,72; 172,94</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 7,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 6,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,71; 9,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 2,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 4,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,43; 0,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 4,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 4,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 5,22</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,39%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>200,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,49%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,22; 375,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,51; 323,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,05; 447,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,73; 179,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,33; 314,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,12; 46,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,77; 213,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,89; 223,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,45; 226,54</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 5,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 3,79</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 5,18</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 2,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 3,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 2,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 3,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 3,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 3,64</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,4%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,04%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,41%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,7%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,0; 248,52</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,89; 173,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,89; 240,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,65; 231,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,4; 353,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; 295,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,59; 203,79</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,83; 165,47</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,81; 185,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 11,42</t>
+          <t>3,08; 8,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 7,61</t>
+          <t>0,42; 4,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 8,03</t>
+          <t>-0,59; 3,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,95</t>
+          <t>0,53; 4,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,34</t>
+          <t>0,9; 5,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 9,49</t>
+          <t>2,57; 6,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 7,7</t>
+          <t>1,05; 3,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,68</t>
+          <t>0,05; 2,83</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>303,47%</t>
+          <t>522,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>152,68%</t>
+          <t>219,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>118,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,22 +763,22 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>393,91%</t>
+          <t>587,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>292,43%</t>
+          <t>315,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>75,09%</t>
+          <t>178,55%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>113,9; 2796,69</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 1429,39</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-46,45; 863,82</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>133,2; 2808,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,19; 1277,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,48; 1075,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>3,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,6</t>
+          <t>-0,12; 4,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,88</t>
+          <t>0,22; 5,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,24</t>
+          <t>0,27; 6,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,59</t>
+          <t>-0,67; 3,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,1</t>
+          <t>-0,29; 3,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,94</t>
+          <t>1,48; 8,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,69</t>
+          <t>-0,01; 3,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,87</t>
+          <t>0,49; 4,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,97</t>
+          <t>1,54; 6,15</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>587,25%</t>
+          <t>73,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>236,95%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>136,34%</t>
+          <t>101,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>117,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>205,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>538,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>645,6%</t>
+          <t>77,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>315,63%</t>
+          <t>103,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>216,67%</t>
+          <t>153,09%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,01; 2807,52</t>
+          <t>-6,48; 234,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 1484,96</t>
+          <t>4,02; 272,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,48; 1055,31</t>
+          <t>0,46; 335,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,34 +1027,34 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,33; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,97; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>114,81; 3396,76</t>
+          <t>-4,03; 237,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1869,22</t>
+          <t>14,19; 261,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 1566,93</t>
+          <t>48,37; 408,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>0,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,36</t>
+          <t>0,58; 7,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 5,12</t>
+          <t>-2,73; 3,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 6,09</t>
+          <t>-1,52; 5,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,44</t>
+          <t>-2,58; 2,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,78</t>
+          <t>-1,93; 3,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,43</t>
+          <t>-3,19; 4,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,5</t>
+          <t>0,23; 5,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,08</t>
+          <t>-2,02; 2,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,96</t>
+          <t>-2,94; 3,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>73,42%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>101,16%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>117,7%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>205,14%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>548,85%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>77,2%</t>
+          <t>78,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>103,45%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>153,53%</t>
+          <t>16,01%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 234,96</t>
+          <t>7,22; 266,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,02; 272,77</t>
+          <t>-47,48; 129,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 318,8</t>
+          <t>-29,38; 200,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,34 +1243,34 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,33; —</t>
+          <t>-82,95; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,33; —</t>
+          <t>-86,09; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 237,27</t>
+          <t>-3,63; 220,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,19; 261,29</t>
+          <t>-43,25; 119,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,58; 400,78</t>
+          <t>-58,04; 131,38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>3,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,78</t>
+          <t>1,91; 7,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 3,84</t>
+          <t>1,19; 6,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 6,2</t>
+          <t>3,18; 10,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,85</t>
+          <t>-3,05; 2,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,67</t>
+          <t>-1,12; 4,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 6,23</t>
+          <t>-4,47; 0,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,4</t>
+          <t>0,57; 4,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,7</t>
+          <t>0,95; 4,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,49</t>
+          <t>1,1; 5,82</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>151,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>123,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>217,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>57,55%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>119,18%</t>
+          <t>-59,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>78,03%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>108,07%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,22; 266,56</t>
+          <t>40,22; 375,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 129,7</t>
+          <t>24,51; 323,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,16; 205,31</t>
+          <t>55,77; 469,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,73; 179,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,95; —</t>
+          <t>-33,33; 314,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,72; —</t>
+          <t>-87,43; 41,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 220,48</t>
+          <t>10,77; 213,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,25; 119,72</t>
+          <t>23,89; 223,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 172,94</t>
+          <t>22,52; 255,09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,36</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,37</t>
+          <t>2,68; 5,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,34</t>
+          <t>1,32; 3,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,71; 9,52</t>
+          <t>2,01; 5,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,66</t>
+          <t>-0,57; 2,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,79</t>
+          <t>0,45; 3,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,35</t>
+          <t>-0,57; 2,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,61</t>
+          <t>1,86; 3,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,78</t>
+          <t>1,3; 3,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,22</t>
+          <t>1,08; 3,57</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>151,23%</t>
+          <t>146,4%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>123,39%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>200,13%</t>
+          <t>126,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>60,28%</t>
+          <t>119,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-58,38%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>122,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>101,1%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>40,22; 375,75</t>
+          <t>84,0; 248,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24,51; 323,09</t>
+          <t>39,89; 173,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>51,05; 447,26</t>
+          <t>60,28; 244,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-69,73; 179,88</t>
+          <t>-29,65; 231,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 314,52</t>
+          <t>16,4; 353,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-87,12; 46,62</t>
+          <t>-29,04; 252,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,77; 213,83</t>
+          <t>65,59; 203,79</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>23,89; 223,34</t>
+          <t>45,83; 165,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,45; 226,54</t>
+          <t>39,07; 175,86</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,01</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 5,47</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 3,79</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 5,18</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 2,13</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 3,2</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,1; 2,91</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 3,93</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 3,24</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 3,64</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>146,4%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>92,07%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>123,04%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>46,01%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>119,88%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>84,73%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>122,41%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>94,15%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>106,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>84,0; 248,52</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>39,89; 173,2</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>59,89; 240,06</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-29,65; 231,32</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>16,4; 353,9</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-7,75; 295,98</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>65,59; 203,79</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>45,83; 165,47</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>49,81; 185,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P32-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 8,19</t>
+          <t>3,12; 8,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,54</t>
+          <t>0,18; 4,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,04</t>
+          <t>-0,65; 3,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,51</t>
+          <t>0,53; 4,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,34</t>
+          <t>0,9; 5,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,06</t>
+          <t>0,53; 4,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,29</t>
+          <t>2,58; 6,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,89</t>
+          <t>0,89; 4,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,83</t>
+          <t>0,17; 2,89</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>113,9; 2796,69</t>
+          <t>100,61; 2769,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1429,39</t>
+          <t>-13,88; 1284,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,45; 863,82</t>
+          <t>-45,93; 727,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>133,2; 2808,22</t>
+          <t>147,41; 2652,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,19; 1277,38</t>
+          <t>20,51; 1510,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 1075,62</t>
+          <t>-16,72; 1025,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,36</t>
+          <t>-0,02; 4,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 5,12</t>
+          <t>0,34; 5,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 6,36</t>
+          <t>0,23; 6,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,44</t>
+          <t>-0,87; 3,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,78</t>
+          <t>-0,34; 3,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,37</t>
+          <t>1,59; 8,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,5</t>
+          <t>0,01; 3,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,08</t>
+          <t>0,58; 4,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 6,15</t>
+          <t>1,33; 6,16</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 234,96</t>
+          <t>-6,54; 257,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 272,77</t>
+          <t>5,81; 273,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 335,22</t>
+          <t>3,72; 356,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,33; —</t>
+          <t>-66,47; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,97; —</t>
+          <t>13,87; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 237,27</t>
+          <t>-4,8; 235,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,19; 261,29</t>
+          <t>16,39; 281,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,37; 408,03</t>
+          <t>41,47; 408,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,78</t>
+          <t>0,22; 7,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 3,84</t>
+          <t>-2,78; 3,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 5,99</t>
+          <t>-1,59; 5,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,85</t>
+          <t>-2,29; 3,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,67</t>
+          <t>-2,24; 3,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,64</t>
+          <t>-3,61; 4,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,4</t>
+          <t>-0,03; 5,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,7</t>
+          <t>-1,9; 2,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 3,68</t>
+          <t>-3,0; 3,44</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 266,56</t>
+          <t>-2,13; 274,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 129,7</t>
+          <t>-46,16; 141,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 200,45</t>
+          <t>-29,54; 213,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,27 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,95; —</t>
+          <t>-87,88; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,09; —</t>
+          <t>-91,01; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 220,48</t>
+          <t>-2,37; 207,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,25; 119,72</t>
+          <t>-40,89; 118,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,04; 131,38</t>
+          <t>-61,49; 130,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,37</t>
+          <t>1,95; 7,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,34</t>
+          <t>1,13; 6,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,4</t>
+          <t>3,33; 10,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,66</t>
+          <t>-3,06; 2,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,79</t>
+          <t>-1,05; 4,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 0,3</t>
+          <t>-4,5; 0,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,61</t>
+          <t>0,73; 4,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,78</t>
+          <t>0,95; 4,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,82</t>
+          <t>1,14; 5,73</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,22; 375,75</t>
+          <t>41,37; 356,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,51; 323,09</t>
+          <t>23,62; 299,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>55,77; 469,32</t>
+          <t>69,28; 506,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-69,73; 179,88</t>
+          <t>-66,83; 158,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 314,52</t>
+          <t>-29,32; 320,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,43; 41,15</t>
+          <t>-87,94; 29,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,77; 213,83</t>
+          <t>13,65; 215,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,89; 223,34</t>
+          <t>23,76; 238,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>22,52; 255,09</t>
+          <t>28,27; 257,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,47</t>
+          <t>2,63; 5,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,79</t>
+          <t>1,3; 3,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,33</t>
+          <t>1,96; 5,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,13</t>
+          <t>-0,59; 1,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,2</t>
+          <t>0,45; 3,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,44</t>
+          <t>-0,82; 2,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,93</t>
+          <t>1,8; 3,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,24</t>
+          <t>1,26; 3,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,57</t>
+          <t>1,01; 3,5</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>84,0; 248,52</t>
+          <t>77,48; 238,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>39,89; 173,2</t>
+          <t>38,6; 171,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>60,28; 244,41</t>
+          <t>57,58; 217,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 231,32</t>
+          <t>-32,19; 213,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,4; 353,9</t>
+          <t>17,55; 339,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 252,41</t>
+          <t>-34,06; 222,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>65,59; 203,79</t>
+          <t>65,46; 205,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>45,83; 165,47</t>
+          <t>41,18; 165,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>39,07; 175,86</t>
+          <t>38,68; 173,03</t>
         </is>
       </c>
     </row>
